--- a/4sem/лабы/предмет чм/Лист Microsoft Excel.xlsx
+++ b/4sem/лабы/предмет чм/Лист Microsoft Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\леха\Desktop\2 курс\4sem\лабы\предмет чм\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB080F83-9E50-4730-95C2-36483303429E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7879FEB4-4434-41D7-88A0-0E423BE6D23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1860" windowWidth="15669" windowHeight="11263" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="19">
   <si>
     <t>x1</t>
   </si>
@@ -66,9 +66,6 @@
     <t>max(x(i-1)-xi)</t>
   </si>
   <si>
-    <t>sum(x(i-1)-xi)</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -93,7 +90,7 @@
     <t>&lt; 0,01</t>
   </si>
   <si>
-    <t>Абсолютные погрешности</t>
+    <t>невязки</t>
   </si>
 </sst>
 </file>
@@ -144,10 +141,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -441,7 +441,7 @@
     <col min="14" max="14" width="11.921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -450,7 +450,7 @@
         <v>-1.46</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -459,7 +459,7 @@
         <v>-1.68</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -468,7 +468,7 @@
         <v>-0.36</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -477,7 +477,7 @@
         <v>-2.38</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -503,11 +503,8 @@
       <c r="K8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -535,13 +532,10 @@
         <v>-2.38</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -572,12 +566,8 @@
         <f>MAX(ABS(G9-G10),ABS(H9-H10),ABS(I9-I10),ABS(J9-J10))</f>
         <v>0.86799999999999999</v>
       </c>
-      <c r="L10" s="1">
-        <f>SUM(ABS(G9-G10),ABS(H9-H10),ABS(I9-I10),ABS(J9-J10))</f>
-        <v>2.5021999999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -608,12 +598,8 @@
         <f t="shared" ref="K11:K14" si="0">MAX(ABS(G11-G10),ABS(H11-H10),ABS(I11-I10),ABS(J11-J10))</f>
         <v>0.262262</v>
       </c>
-      <c r="L11" s="1">
-        <f t="shared" ref="L11:L14" si="1">SUM(ABS(G10-G11),ABS(H10-H11),ABS(I10-I11),ABS(J10-J11))</f>
-        <v>0.4338179999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="F12" s="1">
         <v>3</v>
       </c>
@@ -637,12 +623,8 @@
         <f t="shared" si="0"/>
         <v>3.888437999999983E-2</v>
       </c>
-      <c r="L12" s="1">
-        <f t="shared" si="1"/>
-        <v>8.7607359999999801E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="F13" s="1">
         <v>4</v>
       </c>
@@ -666,12 +648,8 @@
         <f t="shared" si="0"/>
         <v>1.4029872799999898E-2</v>
       </c>
-      <c r="L13" s="1">
-        <f t="shared" si="1"/>
-        <v>3.6250216799999846E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -702,15 +680,11 @@
         <f t="shared" si="0"/>
         <v>3.4997773439998658E-3</v>
       </c>
-      <c r="L14" s="1">
-        <f t="shared" si="1"/>
-        <v>5.7216618899996741E-3</v>
-      </c>
-      <c r="M14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>1</v>
       </c>
@@ -724,9 +698,8 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -744,22 +717,16 @@
         <v>-1.9933319999999999</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18">
-        <f>0.4/(1-0.4)*$K$14</f>
-        <v>2.3331848959999109E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="I19">
-        <f>0.4/(1-0.4)*$L$14</f>
-        <v>3.814441259999783E-3</v>
+        <f>0.45/(1-0.45)*$K$14</f>
+        <v>2.8634541905453448E-3</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.4">
@@ -789,7 +756,7 @@
         <v>-0.97237595999999993</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
@@ -816,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
@@ -847,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.4">
@@ -917,7 +884,7 @@
         <v>-1.9043400000000001</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" ref="N26:N31" si="2">MAX(ABS(J26-J25),ABS(K26-K25),ABS(L26-L25),ABS(M26-M25))</f>
+        <f t="shared" ref="N26:N31" si="1">MAX(ABS(J26-J25),ABS(K26-K25),ABS(L26-L25),ABS(M26-M25))</f>
         <v>0.58777399999999991</v>
       </c>
     </row>
@@ -956,7 +923,7 @@
         <v>-2.0027066599999994</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.23701568000000006</v>
       </c>
     </row>
@@ -988,7 +955,7 @@
         <v>-2.0144866024000003</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.0396976599999959E-2</v>
       </c>
     </row>
@@ -1020,7 +987,7 @@
         <v>-2.0083284938379999</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.3721943780001871E-3</v>
       </c>
     </row>
@@ -1052,7 +1019,7 @@
         <v>-2.00947853312916</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.3073154267401206E-3</v>
       </c>
     </row>
@@ -1084,11 +1051,11 @@
         <v>-2.009688364898135</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5564014694465804E-4</v>
       </c>
       <c r="O31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.4">
@@ -1123,7 +1090,7 @@
         <v>-2.2778</v>
       </c>
       <c r="I33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.4">
@@ -1152,9 +1119,12 @@
         <f>$C$2-0.11*G31-0.19*G32-0.08*G33</f>
         <v>-0.98238199999999987</v>
       </c>
-      <c r="I36" t="s">
-        <v>19</v>
-      </c>
+      <c r="H36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
       <c r="L36">
         <f>ABS(-16-(10.9*G14+1.2*H14+2.1*I14+0.9*J14))</f>
         <v>6.3193124493992059E-3</v>
@@ -1181,6 +1151,10 @@
         <f>$C$4+0.21*G30+0.15*G31+0.13*G33</f>
         <v>-1.192814</v>
       </c>
+      <c r="L38">
+        <f>ABS(3.6-(2.1*G14+1.5*H14-9.8*I14+1.3*J14))</f>
+        <v>0.19608057288420033</v>
+      </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.4">
       <c r="F39" t="s">
@@ -1190,6 +1164,10 @@
         <f>$C$5-0.07*G30-0.2*G31-0.1*G32</f>
         <v>-1.9043400000000001</v>
       </c>
+      <c r="L39">
+        <f>ABS(28.9-(-0.9*G14-2.5*H14-1.3*I14-12.1*J14))</f>
+        <v>0.11593535615060091</v>
+      </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.4">
       <c r="F42" t="s">
@@ -1372,6 +1350,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H36:K36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/4sem/лабы/предмет чм/Лист Microsoft Excel.xlsx
+++ b/4sem/лабы/предмет чм/Лист Microsoft Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\леха\Desktop\2 курс\4sem\лабы\предмет чм\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7879FEB4-4434-41D7-88A0-0E423BE6D23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0CA9AF-9F5A-4365-BCEB-BBC97C533CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2143" yWindow="300" windowWidth="18506" windowHeight="12009" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/4sem/лабы/предмет чм/Лист Microsoft Excel.xlsx
+++ b/4sem/лабы/предмет чм/Лист Microsoft Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\леха\Desktop\2 курс\4sem\лабы\предмет чм\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0CA9AF-9F5A-4365-BCEB-BBC97C533CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D0674E-B503-41E0-87E9-04A94DC6BF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2143" yWindow="300" windowWidth="18506" windowHeight="12009" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -677,7 +677,7 @@
         <v>-2.0093447372019999</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="0"/>
+        <f>MAX(ABS(G14-G13),ABS(H14-H13),ABS(I14-I13),ABS(J14-J13))</f>
         <v>3.4997773439998658E-3</v>
       </c>
       <c r="L14" t="s">
